--- a/Excel/02井网密度.xlsx
+++ b/Excel/02井网密度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72681887-E109-4A2D-A62F-62B1F388FBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D351B-8B57-4171-9996-FC48B1FBF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01技术上" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,9 @@
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>1600</v>
+      </c>
       <c r="F8" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -1199,7 +1201,9 @@
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>1200</v>
+      </c>
       <c r="F11" s="1">
         <v>0.13500000000000001</v>
       </c>

--- a/Excel/02井网密度.xlsx
+++ b/Excel/02井网密度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D351B-8B57-4171-9996-FC48B1FBF476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5651D-A29D-4677-8546-1DA478B7B8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01技术上" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>采油速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>含有面积，km^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地质储量，m^3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,7 +209,7 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC7A1E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +366,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,6 +385,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -689,40 +700,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="20">
+        <v>1079.973</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -784,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
@@ -949,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C37B518-5F36-49AE-BD0B-2BEF60CE804C}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -963,57 +976,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="F1" s="14" t="s">
+      <c r="A1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="F1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
+      <c r="A2" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="20">
+        <v>1079.973</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="6">
         <v>3000</v>
@@ -1031,16 +1046,16 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
+      <c r="A4" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="19"/>
       <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -1064,18 +1079,18 @@
         <v>4000</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
+      <c r="A5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="F5" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1091,7 +1106,7 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1">
@@ -1109,13 +1124,13 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
+      <c r="A7" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="F7" s="1">
         <v>5.5E-2</v>
       </c>
@@ -1131,11 +1146,11 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
+      <c r="A8" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>1600</v>
@@ -1155,7 +1170,7 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="F9" s="1">
@@ -1173,13 +1188,15 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
+      <c r="A10" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>5.28</v>
+      </c>
       <c r="F10" s="1">
         <v>0.115</v>
       </c>
@@ -1195,11 +1212,11 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+      <c r="A11" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>1200</v>

--- a/Excel/02井网密度.xlsx
+++ b/Excel/02井网密度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5651D-A29D-4677-8546-1DA478B7B8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D0F9A-14C8-48CF-944A-043D570BF38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +208,15 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,12 +255,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,6 +268,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,14 +348,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,47 +360,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +710,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,117 +725,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="23">
         <v>1079.973</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>0.01</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11">
         <v>0.02</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="11">
         <v>0.03</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="11">
         <v>0.01</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="11">
         <v>0.02</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="11">
         <v>0.8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
@@ -821,16 +846,16 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="E6" s="10">
+        <v>5.28</v>
+      </c>
+      <c r="E6" s="8">
         <v>15</v>
       </c>
       <c r="F6" s="1"/>
@@ -841,14 +866,16 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="10">
+      <c r="C7" s="24">
+        <v>14.738300000000001</v>
+      </c>
+      <c r="E7" s="8">
         <v>20</v>
       </c>
       <c r="F7" s="1"/>
@@ -859,7 +886,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>25</v>
       </c>
       <c r="F8" s="1"/>
@@ -870,7 +897,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>30</v>
       </c>
       <c r="F9" s="1"/>
@@ -881,7 +908,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>35</v>
       </c>
       <c r="F10" s="1"/>
@@ -892,7 +919,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>40</v>
       </c>
       <c r="F11" s="1"/>
@@ -903,7 +930,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>45</v>
       </c>
       <c r="F12" s="1"/>
@@ -914,7 +941,7 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>50</v>
       </c>
       <c r="F13" s="1"/>
@@ -925,7 +952,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>55</v>
       </c>
       <c r="F14" s="1"/>
@@ -936,7 +963,7 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>60</v>
       </c>
       <c r="F15" s="1"/>
@@ -976,53 +1003,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="F1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="12">
         <v>1079.973</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
@@ -1030,67 +1057,67 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>3000</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>3500</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>4000</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="19"/>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="11"/>
+      <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>3000</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>3500</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>4000</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>3000</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>3500</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>4000</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="11"/>
       <c r="F5" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1102,11 +1129,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1">
@@ -1120,17 +1147,17 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="11"/>
       <c r="F7" s="1">
         <v>5.5E-2</v>
       </c>
@@ -1142,11 +1169,11 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1166,11 +1193,11 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="F9" s="1">
@@ -1184,11 +1211,11 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1208,11 +1235,11 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1232,8 +1259,8 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
@@ -1247,8 +1274,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F13" s="1">
@@ -1262,8 +1289,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
@@ -1277,8 +1304,8 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
@@ -1292,8 +1319,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
@@ -1307,8 +1334,8 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
@@ -1322,8 +1349,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F18" s="1">
@@ -1337,8 +1364,8 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F19" s="1">
@@ -1352,8 +1379,8 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F20" s="1">
@@ -1367,8 +1394,8 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F21" s="1">
@@ -1382,8 +1409,8 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F22" s="1">
@@ -1397,22 +1424,22 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excel/02井网密度.xlsx
+++ b/Excel/02井网密度.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D0F9A-14C8-48CF-944A-043D570BF38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229F5DB-6FA6-4977-8C15-F27613ABD8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01技术上" sheetId="1" r:id="rId1"/>
     <sheet name="02经济上" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>采油速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单井日产油量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>含有面积，km^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采收率-驱油效率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,18 +117,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>含油面积，km^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钻井和地面总费用，万元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地质储量，万m^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,7 +164,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密度(V=%)</t>
+    <t>密度(V=1%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度(V=1.25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度(V=1.5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井距(V=1%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井距(V=1.25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井距(V=1.5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产油能力(t/d /m /Mpa)</t>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表7试油数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01连井剖面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单井日产油量计算数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效厚度平均值，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产压差，Mpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>含有面积，km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单井日产油量 m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>地质储量，10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>油的密度，kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>含油面积，km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台储量计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井网指数-参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透率K，mD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原油粘度μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，mPa·s</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流度，mD/mPa·s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>直接计算33*64*50</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +453,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +536,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,6 +656,27 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,22 +695,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,6 +715,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFC7A1E3"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FFB17ED8"/>
@@ -442,6 +734,2287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6964072390010481E-2"/>
+          <c:y val="3.5650041799145965E-2"/>
+          <c:w val="0.78915636709901549"/>
+          <c:h val="0.81011358098242658"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01技术上'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>密度(V=1%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01技术上'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01技术上'!$F$5:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0048061955168119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6698707970112077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.502403097758406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8019224782067247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3349353985056038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0013731987190893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.751201548879203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.556623599003736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4009612391033623</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2736011264576022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1674676992528019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E6D-4AE6-AA52-9C513A69CC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01技术上'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>密度(V=1.25%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01技术上'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01技术上'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.7560077443960154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8373384962640094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3780038721980077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.502403097758406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9186692481320047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5017164983988609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1890019360990038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9457794987546699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.751201548879203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5920014080720026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4593346240660023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E6D-4AE6-AA52-9C513A69CC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01技术上'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>密度(V=1.5%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01技术上'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01技术上'!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.507209293275217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0048061955168111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2536046466376085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2028837173100868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5024030977584055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.002059798078633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6268023233188043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3349353985056038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1014418586550434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9104016896864031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7512015488792028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E6D-4AE6-AA52-9C513A69CC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1758134496"/>
+        <c:axId val="1758134976"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01技术上'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>井距(V=1%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01技术上'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01技术上'!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>377.83478470578763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462.75121480175864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>534.33907686724331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>597.40924945482072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>654.42904397727239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>706.86415658727606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>755.66956941157525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>801.50861530086502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>844.86426286613903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>886.10111439675939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>925.50242960351727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E6D-4AE6-AA52-9C513A69CC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01技术上'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>井距(V=1.25%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01技术上'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01技术上'!$J$5:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>337.94570514645562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413.89726918693572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>477.92739956385657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>534.33907686724331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>585.33913151335219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>632.23852199488203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>675.89141029291125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>716.89109934578494</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>755.66956941157525</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>792.55293069178867</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>827.79453837387143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E6D-4AE6-AA52-9C513A69CC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01技术上'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>井距(V=1.5%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01技术上'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01技术上'!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>308.50080986783911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>377.83478470578768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>436.28602931818159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>487.78260959446015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>534.33907686724342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>577.15216703387171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>617.00161973567822</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>654.42904397727239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>689.82878197822606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>723.49853026120195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>755.66956941157537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2E6D-4AE6-AA52-9C513A69CC4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1857570320"/>
+        <c:axId val="1857567440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1758134496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>单井日产油量，m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="30000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>/d</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36916840808712409"/>
+              <c:y val="0.92324642120556188"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1758134976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1758134976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>井网密度，口</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>/km</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="30000">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="30000">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.9529735040738628E-3"/>
+              <c:y val="0.28516606469525835"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1758134496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
+        <c:minorUnit val="1.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1857567440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>开发井距，</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.94947857926077428"/>
+              <c:y val="0.33399280534053699"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1857570320"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="300"/>
+        <c:minorUnit val="150"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1857570320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1857567440"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14810398815528797"/>
+          <c:y val="6.1039604237711757E-2"/>
+          <c:w val="0.66367563891496406"/>
+          <c:h val="8.6982424587717391E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFF66"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423122</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>37387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>417917</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116903</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7E4B0C-66EE-CB32-5339-0AB60C223FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="1. 工业边界及井位数据"/>
+      <sheetName val="1.1 操作"/>
+      <sheetName val="1.2 操作"/>
+      <sheetName val="2. 储层及分层数据"/>
+      <sheetName val="2.1 操作"/>
+      <sheetName val="2.2 操作"/>
+      <sheetName val="2.2.1 操作"/>
+      <sheetName val="2.3 操作"/>
+      <sheetName val="3. 储层岩石粒度分布特征"/>
+      <sheetName val="3.1 操作"/>
+      <sheetName val="3.2 操作"/>
+      <sheetName val="4. 储层流体物性分析"/>
+      <sheetName val="4.1 操作"/>
+      <sheetName val="4.2 操作"/>
+      <sheetName val="5. 相对渗透率曲线"/>
+      <sheetName val="5.1 操作"/>
+      <sheetName val="5.2 操作"/>
+      <sheetName val="6. 地层温度压力数据"/>
+      <sheetName val="7. 试油、试采数据"/>
+      <sheetName val="7.1 操作"/>
+      <sheetName val="7.2 操作"/>
+      <sheetName val="7.3 技术上井网密度"/>
+      <sheetName val="7.4 经济上井网密度"/>
+      <sheetName val="7.5 操作"/>
+      <sheetName val="7.5.1 操作"/>
+      <sheetName val="7.5.1 操作(1)"/>
+      <sheetName val="8. 经济评价基本数据"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21">
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>密度(V=1%)</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>密度(V=1.5%)</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>密度(V=2%)</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>井距(V=1%)</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>井距(V=1.5%)</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>井距(V=2%)</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>10</v>
+          </cell>
+          <cell r="G5">
+            <v>10.242787463677875</v>
+          </cell>
+          <cell r="H5">
+            <v>15.36418119551681</v>
+          </cell>
+          <cell r="I5">
+            <v>20.485574927355749</v>
+          </cell>
+          <cell r="J5">
+            <v>312.45747536135059</v>
+          </cell>
+          <cell r="K5">
+            <v>255.12046031785195</v>
+          </cell>
+          <cell r="L5">
+            <v>220.94079966043958</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>15</v>
+          </cell>
+          <cell r="G6">
+            <v>6.8285249757852498</v>
+          </cell>
+          <cell r="H6">
+            <v>10.242787463677873</v>
+          </cell>
+          <cell r="I6">
+            <v>13.6570499515705</v>
+          </cell>
+          <cell r="J6">
+            <v>382.6806904767779</v>
+          </cell>
+          <cell r="K6">
+            <v>312.45747536135059</v>
+          </cell>
+          <cell r="L6">
+            <v>270.59611126527994</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>20</v>
+          </cell>
+          <cell r="G7">
+            <v>5.1213937318389373</v>
+          </cell>
+          <cell r="H7">
+            <v>7.6820905977584051</v>
+          </cell>
+          <cell r="I7">
+            <v>10.242787463677875</v>
+          </cell>
+          <cell r="J7">
+            <v>441.88159932087916</v>
+          </cell>
+          <cell r="K7">
+            <v>360.79481502037328</v>
+          </cell>
+          <cell r="L7">
+            <v>312.45747536135059</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>25</v>
+          </cell>
+          <cell r="G8">
+            <v>4.0971149854711504</v>
+          </cell>
+          <cell r="H8">
+            <v>6.1456724782067242</v>
+          </cell>
+          <cell r="I8">
+            <v>8.1942299709423008</v>
+          </cell>
+          <cell r="J8">
+            <v>494.03864704390537</v>
+          </cell>
+          <cell r="K8">
+            <v>403.38086615750836</v>
+          </cell>
+          <cell r="L8">
+            <v>349.33807749297279</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>30</v>
+          </cell>
+          <cell r="G9">
+            <v>3.4142624878926249</v>
+          </cell>
+          <cell r="H9">
+            <v>5.1213937318389364</v>
+          </cell>
+          <cell r="I9">
+            <v>6.8285249757852498</v>
+          </cell>
+          <cell r="J9">
+            <v>541.19222253055989</v>
+          </cell>
+          <cell r="K9">
+            <v>441.88159932087922</v>
+          </cell>
+          <cell r="L9">
+            <v>382.6806904767779</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>35</v>
+          </cell>
+          <cell r="G10">
+            <v>2.9265107039079639</v>
+          </cell>
+          <cell r="H10">
+            <v>4.389766055861946</v>
+          </cell>
+          <cell r="I10">
+            <v>5.8530214078159277</v>
+          </cell>
+          <cell r="J10">
+            <v>584.55441036926709</v>
+          </cell>
+          <cell r="K10">
+            <v>477.28667743272945</v>
+          </cell>
+          <cell r="L10">
+            <v>413.34238754461268</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>40</v>
+          </cell>
+          <cell r="G11">
+            <v>2.5606968659194687</v>
+          </cell>
+          <cell r="H11">
+            <v>3.8410452988792025</v>
+          </cell>
+          <cell r="I11">
+            <v>5.1213937318389373</v>
+          </cell>
+          <cell r="J11">
+            <v>624.91495072270118</v>
+          </cell>
+          <cell r="K11">
+            <v>510.2409206357039</v>
+          </cell>
+          <cell r="L11">
+            <v>441.88159932087916</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>45</v>
+          </cell>
+          <cell r="G12">
+            <v>2.2761749919284169</v>
+          </cell>
+          <cell r="H12">
+            <v>3.4142624878926249</v>
+          </cell>
+          <cell r="I12">
+            <v>4.5523499838568338</v>
+          </cell>
+          <cell r="J12">
+            <v>662.82239898131866</v>
+          </cell>
+          <cell r="K12">
+            <v>541.19222253055989</v>
+          </cell>
+          <cell r="L12">
+            <v>468.68621304202583</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>50</v>
+          </cell>
+          <cell r="G13">
+            <v>2.0485574927355752</v>
+          </cell>
+          <cell r="H13">
+            <v>3.0728362391033621</v>
+          </cell>
+          <cell r="I13">
+            <v>4.0971149854711504</v>
+          </cell>
+          <cell r="J13">
+            <v>698.67615498594557</v>
+          </cell>
+          <cell r="K13">
+            <v>570.46669172175461</v>
+          </cell>
+          <cell r="L13">
+            <v>494.03864704390537</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>55</v>
+          </cell>
+          <cell r="G14">
+            <v>1.8623249933959773</v>
+          </cell>
+          <cell r="H14">
+            <v>2.7934874900939657</v>
+          </cell>
+          <cell r="I14">
+            <v>3.7246499867919547</v>
+          </cell>
+          <cell r="J14">
+            <v>732.77773335475979</v>
+          </cell>
+          <cell r="K14">
+            <v>598.31051386413037</v>
+          </cell>
+          <cell r="L14">
+            <v>518.15210435765835</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>60</v>
+          </cell>
+          <cell r="G15">
+            <v>1.7071312439463124</v>
+          </cell>
+          <cell r="H15">
+            <v>2.5606968659194682</v>
+          </cell>
+          <cell r="I15">
+            <v>3.4142624878926249</v>
+          </cell>
+          <cell r="J15">
+            <v>765.36138095355579</v>
+          </cell>
+          <cell r="K15">
+            <v>624.91495072270118</v>
+          </cell>
+          <cell r="L15">
+            <v>541.19222253055989</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,130 +3280,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1079.973</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1079.973</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
+      <c r="B3" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="11">
         <v>0.01</v>
       </c>
       <c r="G3" s="11">
-        <v>0.02</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H3" s="11">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I3" s="11">
         <v>0.01</v>
       </c>
       <c r="J3" s="11">
-        <v>0.02</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="K3" s="11">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.5</v>
+      </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="K4" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>5</v>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="11">
         <v>0.8</v>
@@ -838,140 +3412,388 @@
       <c r="E5" s="8">
         <v>10</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:H15" si="0">$C$2*F$3/(365*$E5*$C$5*$C$6)*10000</f>
+        <v>7.0048061955168119</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7560077443960154</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>10.507209293275217</v>
+      </c>
+      <c r="I5" s="1">
+        <f>SQRT(10^6/F5)</f>
+        <v>377.83478470578763</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:K15" si="1">SQRT(10^6/G5)</f>
+        <v>337.94570514645562</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>308.50080986783911</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
         <v>5.28</v>
       </c>
       <c r="E6" s="8">
         <v>15</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6698707970112077</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8373384962640094</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0048061955168111</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I15" si="2">SQRT(10^6/F6)</f>
+        <v>462.75121480175864</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>413.89726918693572</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>377.83478470578768</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="24">
-        <v>14.738300000000001</v>
+    <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="26">
+        <f>B11*B12*B13/B14*1000</f>
+        <v>17.33451294117647</v>
       </c>
       <c r="E7" s="8">
         <v>20</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="F7" s="1">
+        <f>$C$2*F$3/(365*$E7*$C$5*$C$6)*10000</f>
+        <v>3.502403097758406</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3780038721980077</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2536046466376085</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>534.33907686724331</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>477.92739956385657</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>436.28602931818159</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" s="8">
         <v>25</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8019224782067247</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.502403097758406</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2028837173100868</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>597.40924945482072</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>534.33907686724331</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>487.78260959446015</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8">
         <v>30</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3349353985056038</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9186692481320047</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5024030977584055</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>654.42904397727239</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>585.33913151335219</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>534.33907686724342</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="8">
         <v>35</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0013731987190893</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5017164983988609</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.002059798078633</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>706.86415658727606</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>632.23852199488203</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>577.15216703387171</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1.024</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="8">
         <v>40</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.751201548879203</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1890019360990038</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6268023233188043</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>755.66956941157525</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>675.89141029291125</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>617.00161973567822</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="18">
+        <v>14.388999999999999</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="8">
         <v>45</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.556623599003736</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9457794987546699</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3349353985056038</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>801.50861530086502</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>716.89109934578494</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>654.42904397727239</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="27">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="8">
         <v>50</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4009612391033623</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.751201548879203</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1014418586550434</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>844.86426286613903</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>755.66956941157525</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>689.82878197822606</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="11">
+        <v>850</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="8">
         <v>55</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2736011264576022</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5920014080720026</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9104016896864031</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>886.10111439675939</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>792.55293069178867</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>723.49853026120195</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="8">
         <v>60</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1674676992528019</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4593346240660023</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7512015488792028</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>925.50242960351727</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>827.79453837387143</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>755.66956941157537</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -982,6 +3804,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -989,13 +3813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C37B518-5F36-49AE-BD0B-2BEF60CE804C}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
@@ -1004,47 +3829,53 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="F1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="D1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="12">
         <v>1079.973</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="I2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
@@ -1052,10 +3883,11 @@
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5">
         <v>3000</v>
@@ -1074,18 +3906,19 @@
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="11"/>
+      <c r="D4" s="1"/>
       <c r="F4" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="5">
         <v>3000</v>
@@ -1106,18 +3939,19 @@
         <v>4000</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
+      <c r="A5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="1"/>
       <c r="F5" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1136,6 +3970,7 @@
       <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="F6" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -1152,12 +3987,17 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="11">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F7" s="1">
         <v>5.5E-2</v>
       </c>
@@ -1174,14 +4014,15 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>1600</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="F8" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -1200,6 +4041,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="F9" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -1214,15 +4056,18 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>5.28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="1">
         <v>0.115</v>
@@ -1240,14 +4085,15 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>1200</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="F11" s="1">
         <v>0.13500000000000001</v>
       </c>
@@ -1293,6 +4139,15 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="1">
         <v>0.19500000000000001</v>
       </c>
@@ -1308,6 +4163,15 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="18">
+        <v>45.227499999999999</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="1">
         <v>0.215</v>
       </c>
@@ -1322,7 +4186,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="11">
+        <v>10.09</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="1">
         <v>0.23499999999999999</v>
       </c>
@@ -1337,7 +4210,15 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="18">
+        <f>B15/B16</f>
+        <v>4.4824083250743314</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="F17" s="1">
         <v>0.255</v>
       </c>
@@ -1352,7 +4233,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F18" s="1">
         <v>0.27500000000000002</v>
       </c>
@@ -1367,7 +4248,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F19" s="1">
         <v>0.29499999999999998</v>
       </c>
@@ -1382,7 +4263,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F20" s="1">
         <v>0.315</v>
       </c>
@@ -1397,7 +4278,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F21" s="1">
         <v>0.33500000000000002</v>
       </c>
@@ -1412,7 +4293,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F22" s="1">
         <v>0.35499999999999998</v>
       </c>
@@ -1427,7 +4308,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>

--- a/Excel/02井网密度.xlsx
+++ b/Excel/02井网密度.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229F5DB-6FA6-4977-8C15-F27613ABD8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDDFB5F-F82B-4E93-A2D8-3F4E70A0B630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01技术上" sheetId="1" r:id="rId1"/>
     <sheet name="02经济上" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="test" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>采油速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,18 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采收率-井网指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油价格，元/吨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油生产成本，元/吨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钻井和地面总费用，万元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采收率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>井距</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变化率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +137,6 @@
   </si>
   <si>
     <t>收益(元/吨)</t>
-  </si>
-  <si>
-    <t>油价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密度(V=1%)</t>
@@ -349,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平台储量计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,12 +368,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表2</t>
+    <t>参数表计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>直接计算33*64*50</t>
+      <t>采收率-井网指数，井/km</t>
     </r>
     <r>
       <rPr>
@@ -418,12 +393,293 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>井网密度，井/km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井距，m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原油价格，元/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原油生产成本，元/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用经验公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【表5】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【表2】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【表4】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【表8】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>直接计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33*64*50</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【表8】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1600元/吨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，脱气原油密度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>813kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【表4】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油价格-参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deepseek</t>
+  </si>
+  <si>
+    <t>Deepseek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收益，万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油价格，元/吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1桶原油=? m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>脱气原油密度，kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油生产成本，元/吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油价格，? $/桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益(3000元/吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化率(3000元/吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益(3500元/吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益(4000元/吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化率(3500元/吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化率(4000元/吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deepseek，油藏工程课程数据验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油价格，? $一桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油生产成本-参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油价格，? 元/吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【表4】</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +727,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +851,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -594,35 +900,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,13 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,19 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,6 +971,51 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,13 +1024,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFA3A3"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFC7A1E3"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FFB17ED8"/>
-      <color rgb="FFFFA3A3"/>
       <color rgb="FFFF5353"/>
     </mruColors>
   </colors>
@@ -1847,7 +2156,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1910,7 +2219,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1978,6 +2287,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1857567440"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2074,6 +2384,1708 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2084082705493591E-2"/>
+          <c:y val="9.5425863551969317E-2"/>
+          <c:w val="0.89180900673507402"/>
+          <c:h val="0.84647608195587365"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02经济上'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>收益(3000元/吨)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02经济上'!$H$5:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02经济上'!$I$5:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-1.1946402043194171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.870570910656025E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1241088003936364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6851172439137052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2143154958451223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5365507761466688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.592225065061086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.374842974267338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.900353380911769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.192783631219836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.277711725462119</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.17945087416318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.919979388310225</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.518677635482582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.992422532029355</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.35582436873208</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.621504343899382</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.800366628894555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.90184585375134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.934123935325012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.904316228064673</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.818629569207463</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.682495682817802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.500683494221722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.277393638930771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.016338052643682</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.720807109692146</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.393726385248971</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.037704770612518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B849-43A3-A183-4F310702FDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02经济上'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>收益(3500元/吨)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02经济上'!$H$5:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02经济上'!$J$5:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-1.0178688487192091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8118993947839539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0895762291056501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8669448310257426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.601142458646954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.054461767627622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.146019731154329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.867001179362816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.239051016951684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.29477778522692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.068894484555727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.594397614935744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.901114884135307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.015348219583508</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.960002007754124</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.7549045004221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.417184466720585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.961640424928319</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.401076515805386</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.74659676936966</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.007857738087772</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.193282986781561</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.310244140967015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.365213313586622</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.363891367120331</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.311315928587852</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.211952506010768</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.06977152283789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34.888313617259847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B849-43A3-A183-4F310702FDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02经济上'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>收益(4000元/吨)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02经济上'!$H$5:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02经济上'!$K$5:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-0.84109749311900084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6925044986744679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0550436578176621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.048772418137782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.987969421448783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.572372759108578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.699814397247579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.359159384458298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.577748652991605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.396771939234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.860077243649343</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.009344355708308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.882250379960389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.512018803684427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.927581483478889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.153984632112135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.212864589541788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.122914220962095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.900307177859439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.559069603414308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.111399248110864</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.567936404355649</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.937992599116242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.229743132951526</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.450389095309902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.606293804532037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.703097902329397</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.745816660426804</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.738922463907173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B849-43A3-A183-4F310702FDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1851005088"/>
+        <c:axId val="1851004608"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02经济上'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>变化率(3000元/吨)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02经济上'!$H$6:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02经济上'!$L$6:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.6593745023565267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3769114765101329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.545103347725743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4257167661164818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.188954784607982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9191460990603346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6540641579253412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4089703284762489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1886791722751751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99333362147167215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82113383142405283</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66961338065970111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53622157185956532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41857336662474864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31454090593501327</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22227113008123744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14017075492597897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6878653215228567E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.235187156666484E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.7747183058774354E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.11091027262343545</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.15897303749287062</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.20255102194351515</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.24217272078901964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.27829326461931281</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.31130583369735554</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.34155116953981413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B849-43A3-A183-4F310702FDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02经济上'!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>变化率(3500元/吨)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02经济上'!$H$6:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02经济上'!$M$6:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2.5537225389124298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5275227181208946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7557831147706522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5937584683009396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2724386362536872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9062697058675973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5465156428986777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2138883029320517</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9149217338020215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6498099148544121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4161101997897898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2104753023238821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0294435618094084</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86977814041929591</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72859122948323041</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60336796225310962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49194602454240055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39247817222067027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30339061114119303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22334310870595075</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15119320143962156</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5965163402530465E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6823613076658148E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.6948692499384919E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.5969430554781781E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.12077220287498136</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.16181944437546036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B849-43A3-A183-4F310702FDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02经济上'!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>变化率(4000元/吨)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02经济上'!$H$6:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02经济上'!$N$6:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>3.4480705754683316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6781339597316567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9664628818155609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7618001704853983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3559224878993978</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8933933126748599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4389671278720133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.018806277387851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6411642953288688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3062862082371538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0110865681555232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7513372239880596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5226655517592498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3209829142138538</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1426415530314493</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98446479442498003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84372129415882569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71807769122610665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60554603512571248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50443340047067053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.41329667550268923</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33090336429793865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25619824809682967</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18827533579025513</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12635440350974747</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9761427947383936E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7912280788888069E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B849-43A3-A183-4F310702FDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1851022368"/>
+        <c:axId val="1851020928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1851005088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1851004608"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851004608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851005088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="14"/>
+        <c:minorUnit val="7"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851020928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851022368"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1851022368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851020928"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="6"/>
+        <c:minorUnit val="3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12455309148014121"/>
+          <c:y val="0.12170128539659536"/>
+          <c:w val="0.78455555555555556"/>
+          <c:h val="0.11474555263925344"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2114,7 +4126,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2671,350 +5239,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="1. 工业边界及井位数据"/>
-      <sheetName val="1.1 操作"/>
-      <sheetName val="1.2 操作"/>
-      <sheetName val="2. 储层及分层数据"/>
-      <sheetName val="2.1 操作"/>
-      <sheetName val="2.2 操作"/>
-      <sheetName val="2.2.1 操作"/>
-      <sheetName val="2.3 操作"/>
-      <sheetName val="3. 储层岩石粒度分布特征"/>
-      <sheetName val="3.1 操作"/>
-      <sheetName val="3.2 操作"/>
-      <sheetName val="4. 储层流体物性分析"/>
-      <sheetName val="4.1 操作"/>
-      <sheetName val="4.2 操作"/>
-      <sheetName val="5. 相对渗透率曲线"/>
-      <sheetName val="5.1 操作"/>
-      <sheetName val="5.2 操作"/>
-      <sheetName val="6. 地层温度压力数据"/>
-      <sheetName val="7. 试油、试采数据"/>
-      <sheetName val="7.1 操作"/>
-      <sheetName val="7.2 操作"/>
-      <sheetName val="7.3 技术上井网密度"/>
-      <sheetName val="7.4 经济上井网密度"/>
-      <sheetName val="7.5 操作"/>
-      <sheetName val="7.5.1 操作"/>
-      <sheetName val="7.5.1 操作(1)"/>
-      <sheetName val="8. 经济评价基本数据"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet9"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21">
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>密度(V=1%)</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>密度(V=1.5%)</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>密度(V=2%)</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v>井距(V=1%)</v>
-          </cell>
-          <cell r="K4" t="str">
-            <v>井距(V=1.5%)</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>井距(V=2%)</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>10</v>
-          </cell>
-          <cell r="G5">
-            <v>10.242787463677875</v>
-          </cell>
-          <cell r="H5">
-            <v>15.36418119551681</v>
-          </cell>
-          <cell r="I5">
-            <v>20.485574927355749</v>
-          </cell>
-          <cell r="J5">
-            <v>312.45747536135059</v>
-          </cell>
-          <cell r="K5">
-            <v>255.12046031785195</v>
-          </cell>
-          <cell r="L5">
-            <v>220.94079966043958</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>15</v>
-          </cell>
-          <cell r="G6">
-            <v>6.8285249757852498</v>
-          </cell>
-          <cell r="H6">
-            <v>10.242787463677873</v>
-          </cell>
-          <cell r="I6">
-            <v>13.6570499515705</v>
-          </cell>
-          <cell r="J6">
-            <v>382.6806904767779</v>
-          </cell>
-          <cell r="K6">
-            <v>312.45747536135059</v>
-          </cell>
-          <cell r="L6">
-            <v>270.59611126527994</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>20</v>
-          </cell>
-          <cell r="G7">
-            <v>5.1213937318389373</v>
-          </cell>
-          <cell r="H7">
-            <v>7.6820905977584051</v>
-          </cell>
-          <cell r="I7">
-            <v>10.242787463677875</v>
-          </cell>
-          <cell r="J7">
-            <v>441.88159932087916</v>
-          </cell>
-          <cell r="K7">
-            <v>360.79481502037328</v>
-          </cell>
-          <cell r="L7">
-            <v>312.45747536135059</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>25</v>
-          </cell>
-          <cell r="G8">
-            <v>4.0971149854711504</v>
-          </cell>
-          <cell r="H8">
-            <v>6.1456724782067242</v>
-          </cell>
-          <cell r="I8">
-            <v>8.1942299709423008</v>
-          </cell>
-          <cell r="J8">
-            <v>494.03864704390537</v>
-          </cell>
-          <cell r="K8">
-            <v>403.38086615750836</v>
-          </cell>
-          <cell r="L8">
-            <v>349.33807749297279</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>30</v>
-          </cell>
-          <cell r="G9">
-            <v>3.4142624878926249</v>
-          </cell>
-          <cell r="H9">
-            <v>5.1213937318389364</v>
-          </cell>
-          <cell r="I9">
-            <v>6.8285249757852498</v>
-          </cell>
-          <cell r="J9">
-            <v>541.19222253055989</v>
-          </cell>
-          <cell r="K9">
-            <v>441.88159932087922</v>
-          </cell>
-          <cell r="L9">
-            <v>382.6806904767779</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>35</v>
-          </cell>
-          <cell r="G10">
-            <v>2.9265107039079639</v>
-          </cell>
-          <cell r="H10">
-            <v>4.389766055861946</v>
-          </cell>
-          <cell r="I10">
-            <v>5.8530214078159277</v>
-          </cell>
-          <cell r="J10">
-            <v>584.55441036926709</v>
-          </cell>
-          <cell r="K10">
-            <v>477.28667743272945</v>
-          </cell>
-          <cell r="L10">
-            <v>413.34238754461268</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>40</v>
-          </cell>
-          <cell r="G11">
-            <v>2.5606968659194687</v>
-          </cell>
-          <cell r="H11">
-            <v>3.8410452988792025</v>
-          </cell>
-          <cell r="I11">
-            <v>5.1213937318389373</v>
-          </cell>
-          <cell r="J11">
-            <v>624.91495072270118</v>
-          </cell>
-          <cell r="K11">
-            <v>510.2409206357039</v>
-          </cell>
-          <cell r="L11">
-            <v>441.88159932087916</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>45</v>
-          </cell>
-          <cell r="G12">
-            <v>2.2761749919284169</v>
-          </cell>
-          <cell r="H12">
-            <v>3.4142624878926249</v>
-          </cell>
-          <cell r="I12">
-            <v>4.5523499838568338</v>
-          </cell>
-          <cell r="J12">
-            <v>662.82239898131866</v>
-          </cell>
-          <cell r="K12">
-            <v>541.19222253055989</v>
-          </cell>
-          <cell r="L12">
-            <v>468.68621304202583</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>50</v>
-          </cell>
-          <cell r="G13">
-            <v>2.0485574927355752</v>
-          </cell>
-          <cell r="H13">
-            <v>3.0728362391033621</v>
-          </cell>
-          <cell r="I13">
-            <v>4.0971149854711504</v>
-          </cell>
-          <cell r="J13">
-            <v>698.67615498594557</v>
-          </cell>
-          <cell r="K13">
-            <v>570.46669172175461</v>
-          </cell>
-          <cell r="L13">
-            <v>494.03864704390537</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>55</v>
-          </cell>
-          <cell r="G14">
-            <v>1.8623249933959773</v>
-          </cell>
-          <cell r="H14">
-            <v>2.7934874900939657</v>
-          </cell>
-          <cell r="I14">
-            <v>3.7246499867919547</v>
-          </cell>
-          <cell r="J14">
-            <v>732.77773335475979</v>
-          </cell>
-          <cell r="K14">
-            <v>598.31051386413037</v>
-          </cell>
-          <cell r="L14">
-            <v>518.15210435765835</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>60</v>
-          </cell>
-          <cell r="G15">
-            <v>1.7071312439463124</v>
-          </cell>
-          <cell r="H15">
-            <v>2.5606968659194682</v>
-          </cell>
-          <cell r="I15">
-            <v>3.4142624878926249</v>
-          </cell>
-          <cell r="J15">
-            <v>765.36138095355579</v>
-          </cell>
-          <cell r="K15">
-            <v>624.91495072270118</v>
-          </cell>
-          <cell r="L15">
-            <v>541.19222253055989</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>574385</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DC21D5-688F-06B2-A726-2E97B1E69677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3300,113 +5563,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="15">
         <v>1079.973</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.01</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>0.01</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.5</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.8</v>
       </c>
       <c r="E5" s="8">
@@ -3438,13 +5701,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>5.28</v>
       </c>
       <c r="E6" s="8">
@@ -3477,12 +5740,12 @@
     </row>
     <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="20">
         <f>B11*B12*B13/B14*1000</f>
         <v>17.33451294117647</v>
       </c>
@@ -3574,13 +5837,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="8">
         <v>35</v>
@@ -3611,14 +5874,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="16">
         <v>1.024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8">
         <v>40</v>
@@ -3649,14 +5912,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16">
         <v>14.388999999999999</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>45</v>
@@ -3687,14 +5950,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="A13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8">
         <v>50</v>
@@ -3725,14 +5988,14 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="10">
         <v>850</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8">
         <v>55</v>
@@ -3792,8 +6055,8 @@
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="F17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3811,83 +6074,1412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C37B518-5F36-49AE-BD0B-2BEF60CE804C}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24">
+        <v>800</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="34">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="21">
+        <v>3500</v>
+      </c>
+      <c r="K3" s="35">
+        <v>4000</v>
+      </c>
+      <c r="L3" s="34">
+        <v>3000</v>
+      </c>
+      <c r="M3" s="21">
+        <v>3500</v>
+      </c>
+      <c r="N3" s="35">
+        <v>4000</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="16">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16">
+        <f>0.1814/(B17^0.4218)*100</f>
+        <v>9.6345130079222532</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1">
+        <f>(10^6/H5)^0.5</f>
+        <v>707.10678118654755</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <f>($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H5)*(I$3-$C$8)-$C$10*$C$11*$H5)/10000</f>
+        <v>-1.1946402043194171</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:K5" si="0">($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H5)*(J$3-$C$8)-$C$10*$C$11*$H5)/10000</f>
+        <v>-1.0178688487192091</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.84109749311900084</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G32" si="1">(10^6/H6)^0.5</f>
+        <v>577.35026918962569</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:K33" si="2">($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H6)*(I$3-$C$8)-$C$10*$C$11*$H6)/10000</f>
+        <v>-6.870570910656025E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8118993947839539</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6925044986744679</v>
+      </c>
+      <c r="L6" s="1">
+        <f>(I7-I5)/($H7-$H5)</f>
+        <v>1.6593745023565267</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:N21" si="3">(J7-J5)/($H7-$H5)</f>
+        <v>2.5537225389124298</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4480705754683316</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="16">
+        <f>B20*B21/B22/B23*1000</f>
+        <v>3899.5200456800922</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <f>($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H7)*(I$3-$C$8)-$C$10*$C$11*$H7)/10000</f>
+        <v>2.1241088003936364</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0895762291056501</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0550436578176621</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L32" si="4">(I8-I6)/($H8-$H6)</f>
+        <v>2.3769114765101329</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5275227181208946</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6781339597316567</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16">
+        <f>1600</f>
+        <v>1600</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>447.21359549995793</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>4.6851172439137052</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8669448310257426</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>11.048772418137782</v>
+      </c>
+      <c r="L8" s="1">
+        <f>(I9-I7)/($H9-$H7)</f>
+        <v>2.545103347725743</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7557831147706522</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9664628818155609</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>408.24829046386299</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2143154958451223</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>11.601142458646954</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>15.987969421448783</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4257167661164818</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5937584683009396</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7618001704853983</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5.28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>377.96447300922722</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5365507761466688</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>15.054461767627622</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>20.572372759108578</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>2.188954784607982</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2724386362536872</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3559224878993978</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1600</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>353.55339059327378</v>
+      </c>
+      <c r="H11" s="8">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>11.592225065061086</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>18.146019731154329</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>24.699814397247579</v>
+      </c>
+      <c r="L11" s="1">
+        <f>(I12-I10)/($H12-$H10)</f>
+        <v>1.9191460990603346</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9062697058675973</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8933933126748599</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="H12" s="8">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>13.374842974267338</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>20.867001179362816</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>28.359159384458298</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6540641579253412</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5465156428986777</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4389671278720133</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>316.22776601683796</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>14.900353380911769</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>23.239051016951684</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>31.577748652991605</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4089703284762489</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2138883029320517</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.018806277387851</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>301.51134457776362</v>
+      </c>
+      <c r="H14" s="8">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>16.192783631219836</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>25.29477778522692</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>34.396771939234</v>
+      </c>
+      <c r="L14" s="1">
+        <f>(I15-I13)/($H15-$H13)</f>
+        <v>1.1886791722751751</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9149217338020215</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6411642953288688</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="16">
+        <v>45.227499999999999</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>288.67513459481285</v>
+      </c>
+      <c r="H15" s="8">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>17.277711725462119</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>27.068894484555727</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>36.860077243649343</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.99333362147167215</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6498099148544121</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3062862082371538</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10">
+        <v>10.09</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>277.35009811261455</v>
+      </c>
+      <c r="H16" s="8">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>18.17945087416318</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>28.594397614935744</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>39.009344355708308</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.82113383142405283</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4161101997897898</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0110865681555232</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B15/B16</f>
+        <v>4.4824083250743314</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>267.2612419124244</v>
+      </c>
+      <c r="H17" s="8">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>18.919979388310225</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>29.901114884135307</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>40.882250379960389</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.66961338065970111</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2104753023238821</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7513372239880596</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>258.19888974716116</v>
+      </c>
+      <c r="H18" s="8">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>19.518677635482582</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>31.015348219583508</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>42.512018803684427</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53622157185956532</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0294435618094084</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5226655517592498</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="H19" s="8">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>19.992422532029355</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>31.960002007754124</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>43.927581483478889</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.41857336662474864</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86977814041929591</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3209829142138538</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="32">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>242.53562503633299</v>
+      </c>
+      <c r="H20" s="8">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>20.35582436873208</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>32.7549045004221</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>45.153984632112135</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31454090593501327</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.72859122948323041</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1426415530314493</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>235.70226039551585</v>
+      </c>
+      <c r="H21" s="8">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>20.621504343899382</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>33.417184466720585</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>46.212864589541788</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22227113008123744</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60336796225310962</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98446479442498003</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="32">
+        <v>0.15897500000000001</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>229.41573387056175</v>
+      </c>
+      <c r="H22" s="8">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>20.800366628894555</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>33.961640424928319</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>47.122914220962095</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14017075492597897</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M31" si="5">(J23-J21)/($H23-$H21)</f>
+        <v>0.49194602454240055</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ref="N22:N32" si="6">(K23-K21)/($H23-$H21)</f>
+        <v>0.84372129415882569</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="32">
+        <v>813</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="H23" s="8">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>20.90184585375134</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>34.401076515805386</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>47.900307177859439</v>
+      </c>
+      <c r="L23" s="1">
+        <f>(I24-I22)/($H24-$H22)</f>
+        <v>6.6878653215228567E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.39247817222067027</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.71807769122610665</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>218.21789023599237</v>
+      </c>
+      <c r="H24" s="8">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>20.934123935325012</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>34.74659676936966</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>48.559069603414308</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="4"/>
+        <v>1.235187156666484E-3</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30339061114119303</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.60554603512571248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>213.20071635561044</v>
+      </c>
+      <c r="H25" s="8">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>20.904316228064673</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>35.007857738087772</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>49.111399248110864</v>
+      </c>
+      <c r="L25" s="1">
+        <f>(I26-I24)/($H26-$H24)</f>
+        <v>-5.7747183058774354E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22334310870595075</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="6"/>
+        <v>0.50443340047067053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>208.51441405707476</v>
+      </c>
+      <c r="H26" s="8">
+        <v>23</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>20.818629569207463</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>35.193282986781561</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>49.567936404355649</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.11091027262343545</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15119320143962156</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.41329667550268923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>204.12414523193149</v>
+      </c>
+      <c r="H27" s="8">
+        <v>24</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>20.682495682817802</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>35.310244140967015</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>49.937992599116242</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.15897303749287062</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="5"/>
+        <v>8.5965163402530465E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.33090336429793865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H28" s="8">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>20.500683494221722</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>35.365213313586622</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>50.229743132951526</v>
+      </c>
+      <c r="L28" s="1">
+        <f>(I29-I27)/($H29-$H27)</f>
+        <v>-0.20255102194351515</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6823613076658148E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="6"/>
+        <v>0.25619824809682967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>196.11613513818403</v>
+      </c>
+      <c r="H29" s="8">
+        <v>26</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>20.277393638930771</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>35.363891367120331</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>50.450389095309902</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.24217272078901964</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.6948692499384919E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.18827533579025513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>192.45008972987526</v>
+      </c>
+      <c r="H30" s="8">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>20.016338052643682</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>35.311315928587852</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>50.606293804532037</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.27829326461931281</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="5"/>
+        <v>-7.5969430554781781E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="6"/>
+        <v>0.12635440350974747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>188.98223650461361</v>
+      </c>
+      <c r="H31" s="8">
+        <v>28</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>19.720807109692146</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>35.211952506010768</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>50.703097902329397</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.31130583369735554</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.12077220287498136</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="6"/>
+        <v>6.9761427947383936E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>185.69533817705187</v>
+      </c>
+      <c r="H32" s="8">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>19.393726385248971</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>35.06977152283789</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>50.745816660426804</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.34155116953981413</v>
+      </c>
+      <c r="M32" s="1">
+        <f>(J33-J31)/($H33-$H31)</f>
+        <v>-0.16181944437546036</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7912280788888069E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <f t="shared" ref="G33" si="7">(10^6/H33)^0.5</f>
+        <v>182.57418583505537</v>
+      </c>
+      <c r="H33" s="8">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>19.037704770612518</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>34.888313617259847</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>50.738922463907173</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AADF05-BE47-4468-B57C-FB7E9798BF08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CF8B23-2582-4767-B5BF-CD1F67977295}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="15" max="15" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="A1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>47</v>
+      <c r="A2" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="24">
         <v>1079.973</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="I2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I3" s="5">
         <v>3000</v>
@@ -3905,20 +7497,24 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="6" t="s">
-        <v>24</v>
+      <c r="C4" s="16">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I4" s="5">
         <v>3000</v>
@@ -3939,98 +7535,161 @@
         <v>4000</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="16">
+        <f>0.1814/(B17^0.4218)*100</f>
+        <v>9.6345130079222532</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1">
+        <f>(10^6/H5)^0.5</f>
+        <v>447.21359549995793</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>($C$2*$C$4*EXP(-$C$5/$H5)*(I3-$C$8)-$C$10*$C$11*$H5)/10000</f>
+        <v>13.730921198473748</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:K5" si="0">($C$2*$C$4*EXP(-$C$5/$H5)*(J3-$C$8)-$C$10*$C$11*$H5)/10000</f>
+        <v>19.014266654710138</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>24.297612110946531</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G32" si="1">(10^6/H6)^0.5</f>
+        <v>408.24829046386299</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:K32" si="2">($C$2*$C$4*EXP(-$C$5/$H6)*(I$3-$C$8)-$C$10*$C$11*$H6)/10000</f>
+        <v>19.685882732491283</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>26.970099638238484</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>34.254316543985688</v>
+      </c>
+      <c r="L6" s="1">
+        <f>(I7-I5)/($H7-$H5)</f>
+        <v>5.746410914192948</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11">
-        <v>70</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="E7" s="16">
+        <f>B20*B21/B22</f>
+        <v>3170.3097971379148</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>377.96447300922722</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>25.223743026859644</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>34.38609678947136</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>43.548450552083075</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
+    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="16">
+        <f>B25/1000*B26</f>
+        <v>1300.8000000000002</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>353.55339059327378</v>
+      </c>
+      <c r="H8" s="8">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>30.22439166894981</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>41.106804471724594</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>51.989217274499381</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4038,18 +7697,30 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="F9" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="H9" s="8">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>34.674738227660193</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>47.115280314424609</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>59.555822401189033</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4057,26 +7728,38 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>50</v>
+      <c r="A10" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>5.28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.115</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>316.22776601683796</v>
+      </c>
+      <c r="H10" s="8">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>38.606925150387816</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>52.453124876843745</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>66.299324603299667</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4084,24 +7767,38 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
+      <c r="A11" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1200</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1600</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>301.51134457776362</v>
+      </c>
+      <c r="H11" s="8">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>42.069375765311634</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>57.183010347853902</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>72.29664493039617</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4109,14 +7806,25 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F12" s="1">
-        <v>0.155</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>288.67513459481285</v>
+      </c>
+      <c r="H12" s="8">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>45.113638499363212</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>61.371653594514818</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>77.629668689666417</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4124,14 +7832,25 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F13" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>277.35009811261455</v>
+      </c>
+      <c r="H13" s="8">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>47.788712795147127</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>65.08247244531988</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>82.376232095492654</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4140,22 +7859,33 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>267.2612419124244</v>
+      </c>
+      <c r="H14" s="8">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>50.138892473369374</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>68.372794448819391</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>86.606696424269416</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4163,23 +7893,34 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="18">
+      <c r="A15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="16">
         <v>45.227499999999999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>258.19888974716116</v>
+      </c>
+      <c r="H15" s="8">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>52.203235609387768</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>71.293170758101212</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>90.383105906814649</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4187,23 +7928,34 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="A16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10">
         <v>10.09</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="H16" s="8">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>54.015754967298356</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>73.887622601272696</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>93.759490235247014</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4211,22 +7963,34 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="18">
+      <c r="A17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="16">
         <f>B15/B16</f>
         <v>4.4824083250743314</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="F17" s="1">
-        <v>0.255</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>242.53562503633299</v>
+      </c>
+      <c r="H17" s="8">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>55.605895284720766</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>76.194259010215333</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>96.782622735709907</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4234,14 +7998,25 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="1">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>235.70226039551585</v>
+      </c>
+      <c r="H18" s="8">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>56.999092596994664</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>78.246000729349504</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>99.492908861704336</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4249,14 +8024,34 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="1">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>229.41573387056175</v>
+      </c>
+      <c r="H19" s="8">
+        <v>19</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>58.217322542356989</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>80.071289862965813</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>101.92525718357463</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4264,14 +8059,34 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="1">
-        <v>0.315</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="A20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="32">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>223.60679774997897</v>
+      </c>
+      <c r="H20" s="8">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>59.279599130182064</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>81.694735409072734</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>104.10987168796339</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4279,29 +8094,70 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F21" s="1">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="A21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>218.21789023599237</v>
+      </c>
+      <c r="H21" s="8">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>60.202411723935057</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>83.137678827258696</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>106.07294593058234</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F22" s="1">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="32">
+        <v>0.15897500000000001</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>213.20071635561044</v>
+      </c>
+      <c r="H22" s="8">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>61.000100198705184</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>84.418679588625494</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>107.8372589785458</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4311,23 +8167,253 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>208.51441405707476</v>
+      </c>
+      <c r="H23" s="8">
+        <v>23</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>61.685173456377278</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>85.553927415998658</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>109.42268137562004</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>204.12414523193149</v>
+      </c>
+      <c r="H24" s="8">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>62.268578280440508</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>86.557590250909115</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>110.84660222137774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1600</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H25" s="8">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>62.759925688023223</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="2"/>
+        <v>87.442107211099753</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>112.12428873417626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="32">
+        <v>813</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>196.11613513818403</v>
+      </c>
+      <c r="H26" s="8">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>63.167681397729091</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>88.218435104687984</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>113.26918881164687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>192.45008972987526</v>
+      </c>
+      <c r="H27" s="8">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>63.499326230737068</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="2"/>
+        <v>88.896256030271275</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>114.29318582980549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>188.98223650461361</v>
+      </c>
+      <c r="H28" s="8">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>63.761491417754044</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>89.484152498778656</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>115.20681357980327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>185.69533817705187</v>
+      </c>
+      <c r="H29" s="8">
+        <v>29</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>63.960072994296198</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>89.989755490263761</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>116.01943798623134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>182.57418583505537</v>
+      </c>
+      <c r="H30" s="8">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>64.100328769459011</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>90.419869956329023</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>116.73941114319904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>179.60530202677489</v>
+      </c>
+      <c r="H31" s="8">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>64.186960757199145</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>90.780581507316583</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>117.37420225743405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>176.77669529663689</v>
+      </c>
+      <c r="H32" s="8">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>64.224185458905154</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>91.077347375955881</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>117.93050929300659</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:N1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/02井网密度.xlsx
+++ b/Excel/02井网密度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDDFB5F-F82B-4E93-A2D8-3F4E70A0B630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE12A816-4211-467D-8D43-EC5CFB107DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2459,91 +2459,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,91 +2555,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-1.1946402043194171</c:v>
+                  <c:v>-6.870570910656025E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.870570910656025E-2</c:v>
+                  <c:v>2.1241088003936364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1241088003936364</c:v>
+                  <c:v>4.6851172439137052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6851172439137052</c:v>
+                  <c:v>7.2143154958451223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2143154958451223</c:v>
+                  <c:v>9.5365507761466688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5365507761466688</c:v>
+                  <c:v>11.592225065061086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.592225065061086</c:v>
+                  <c:v>13.374842974267338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.374842974267338</c:v>
+                  <c:v>14.900353380911769</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.900353380911769</c:v>
+                  <c:v>16.192783631219836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.192783631219836</c:v>
+                  <c:v>17.277711725462119</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.277711725462119</c:v>
+                  <c:v>18.17945087416318</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.17945087416318</c:v>
+                  <c:v>18.919979388310225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.919979388310225</c:v>
+                  <c:v>19.518677635482582</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.518677635482582</c:v>
+                  <c:v>19.992422532029355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.992422532029355</c:v>
+                  <c:v>20.35582436873208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.35582436873208</c:v>
+                  <c:v>20.621504343899382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.621504343899382</c:v>
+                  <c:v>20.800366628894555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.800366628894555</c:v>
+                  <c:v>20.90184585375134</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.90184585375134</c:v>
+                  <c:v>20.934123935325012</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.934123935325012</c:v>
+                  <c:v>20.904316228064673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.904316228064673</c:v>
+                  <c:v>20.818629569207463</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.818629569207463</c:v>
+                  <c:v>20.682495682817802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.682495682817802</c:v>
+                  <c:v>20.500683494221722</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.500683494221722</c:v>
+                  <c:v>20.277393638930771</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.277393638930771</c:v>
+                  <c:v>20.016338052643682</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.016338052643682</c:v>
+                  <c:v>19.720807109692146</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.720807109692146</c:v>
+                  <c:v>19.393726385248971</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.393726385248971</c:v>
+                  <c:v>19.037704770612518</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.037704770612518</c:v>
+                  <c:v>18.655075375082436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,91 +2696,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,91 +2792,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-1.0178688487192091</c:v>
+                  <c:v>0.8118993947839539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8118993947839539</c:v>
+                  <c:v>4.0895762291056501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0895762291056501</c:v>
+                  <c:v>7.8669448310257426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8669448310257426</c:v>
+                  <c:v>11.601142458646954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.601142458646954</c:v>
+                  <c:v>15.054461767627622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.054461767627622</c:v>
+                  <c:v>18.146019731154329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.146019731154329</c:v>
+                  <c:v>20.867001179362816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.867001179362816</c:v>
+                  <c:v>23.239051016951684</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.239051016951684</c:v>
+                  <c:v>25.29477778522692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.29477778522692</c:v>
+                  <c:v>27.068894484555727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.068894484555727</c:v>
+                  <c:v>28.594397614935744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.594397614935744</c:v>
+                  <c:v>29.901114884135307</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.901114884135307</c:v>
+                  <c:v>31.015348219583508</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.015348219583508</c:v>
+                  <c:v>31.960002007754124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.960002007754124</c:v>
+                  <c:v>32.7549045004221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.7549045004221</c:v>
+                  <c:v>33.417184466720585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.417184466720585</c:v>
+                  <c:v>33.961640424928319</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.961640424928319</c:v>
+                  <c:v>34.401076515805386</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.401076515805386</c:v>
+                  <c:v>34.74659676936966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.74659676936966</c:v>
+                  <c:v>35.007857738087772</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.007857738087772</c:v>
+                  <c:v>35.193282986781561</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.193282986781561</c:v>
+                  <c:v>35.310244140967015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.310244140967015</c:v>
+                  <c:v>35.365213313586622</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35.365213313586622</c:v>
+                  <c:v>35.363891367120331</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35.363891367120331</c:v>
+                  <c:v>35.311315928587852</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.311315928587852</c:v>
+                  <c:v>35.211952506010768</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.211952506010768</c:v>
+                  <c:v>35.06977152283789</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.06977152283789</c:v>
+                  <c:v>34.888313617259847</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.888313617259847</c:v>
+                  <c:v>34.670745151897592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,91 +2933,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,91 +3029,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-0.84109749311900084</c:v>
+                  <c:v>1.6925044986744679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6925044986744679</c:v>
+                  <c:v>6.0550436578176621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0550436578176621</c:v>
+                  <c:v>11.048772418137782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.048772418137782</c:v>
+                  <c:v>15.987969421448783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.987969421448783</c:v>
+                  <c:v>20.572372759108578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.572372759108578</c:v>
+                  <c:v>24.699814397247579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.699814397247579</c:v>
+                  <c:v>28.359159384458298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.359159384458298</c:v>
+                  <c:v>31.577748652991605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.577748652991605</c:v>
+                  <c:v>34.396771939234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.396771939234</c:v>
+                  <c:v>36.860077243649343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.860077243649343</c:v>
+                  <c:v>39.009344355708308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.009344355708308</c:v>
+                  <c:v>40.882250379960389</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.882250379960389</c:v>
+                  <c:v>42.512018803684427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.512018803684427</c:v>
+                  <c:v>43.927581483478889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.927581483478889</c:v>
+                  <c:v>45.153984632112135</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.153984632112135</c:v>
+                  <c:v>46.212864589541788</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.212864589541788</c:v>
+                  <c:v>47.122914220962095</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.122914220962095</c:v>
+                  <c:v>47.900307177859439</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.900307177859439</c:v>
+                  <c:v>48.559069603414308</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.559069603414308</c:v>
+                  <c:v>49.111399248110864</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49.111399248110864</c:v>
+                  <c:v>49.567936404355649</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.567936404355649</c:v>
+                  <c:v>49.937992599116242</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.937992599116242</c:v>
+                  <c:v>50.229743132951526</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.229743132951526</c:v>
+                  <c:v>50.450389095309902</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.450389095309902</c:v>
+                  <c:v>50.606293804532037</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.606293804532037</c:v>
+                  <c:v>50.703097902329397</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.703097902329397</c:v>
+                  <c:v>50.745816660426804</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.745816660426804</c:v>
+                  <c:v>50.738922463907173</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.738922463907173</c:v>
+                  <c:v>50.686414928712757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3184,85 +3184,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3274,85 +3274,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.6593745023565267</c:v>
+                  <c:v>2.3769114765101329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3769114765101329</c:v>
+                  <c:v>2.545103347725743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.545103347725743</c:v>
+                  <c:v>2.4257167661164818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4257167661164818</c:v>
+                  <c:v>2.188954784607982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.188954784607982</c:v>
+                  <c:v>1.9191460990603346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9191460990603346</c:v>
+                  <c:v>1.6540641579253412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6540641579253412</c:v>
+                  <c:v>1.4089703284762489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4089703284762489</c:v>
+                  <c:v>1.1886791722751751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1886791722751751</c:v>
+                  <c:v>0.99333362147167215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99333362147167215</c:v>
+                  <c:v>0.82113383142405283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82113383142405283</c:v>
+                  <c:v>0.66961338065970111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66961338065970111</c:v>
+                  <c:v>0.53622157185956532</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.53622157185956532</c:v>
+                  <c:v>0.41857336662474864</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41857336662474864</c:v>
+                  <c:v>0.31454090593501327</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31454090593501327</c:v>
+                  <c:v>0.22227113008123744</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.22227113008123744</c:v>
+                  <c:v>0.14017075492597897</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14017075492597897</c:v>
+                  <c:v>6.6878653215228567E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6878653215228567E-2</c:v>
+                  <c:v>1.235187156666484E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.235187156666484E-3</c:v>
+                  <c:v>-5.7747183058774354E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.7747183058774354E-2</c:v>
+                  <c:v>-0.11091027262343545</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.11091027262343545</c:v>
+                  <c:v>-0.15897303749287062</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.15897303749287062</c:v>
+                  <c:v>-0.20255102194351515</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.20255102194351515</c:v>
+                  <c:v>-0.24217272078901964</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.24217272078901964</c:v>
+                  <c:v>-0.27829326461931281</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.27829326461931281</c:v>
+                  <c:v>-0.31130583369735554</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.31130583369735554</c:v>
+                  <c:v>-0.34155116953981413</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.34155116953981413</c:v>
+                  <c:v>-0.36932550508326756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,85 +3409,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,85 +3499,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>2.5537225389124298</c:v>
+                  <c:v>3.5275227181208946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5275227181208946</c:v>
+                  <c:v>3.7557831147706522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7557831147706522</c:v>
+                  <c:v>3.5937584683009396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5937584683009396</c:v>
+                  <c:v>3.2724386362536872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2724386362536872</c:v>
+                  <c:v>2.9062697058675973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9062697058675973</c:v>
+                  <c:v>2.5465156428986777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5465156428986777</c:v>
+                  <c:v>2.2138883029320517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2138883029320517</c:v>
+                  <c:v>1.9149217338020215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9149217338020215</c:v>
+                  <c:v>1.6498099148544121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6498099148544121</c:v>
+                  <c:v>1.4161101997897898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4161101997897898</c:v>
+                  <c:v>1.2104753023238821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2104753023238821</c:v>
+                  <c:v>1.0294435618094084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0294435618094084</c:v>
+                  <c:v>0.86977814041929591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86977814041929591</c:v>
+                  <c:v>0.72859122948323041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72859122948323041</c:v>
+                  <c:v>0.60336796225310962</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.60336796225310962</c:v>
+                  <c:v>0.49194602454240055</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.49194602454240055</c:v>
+                  <c:v>0.39247817222067027</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.39247817222067027</c:v>
+                  <c:v>0.30339061114119303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30339061114119303</c:v>
+                  <c:v>0.22334310870595075</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.22334310870595075</c:v>
+                  <c:v>0.15119320143962156</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15119320143962156</c:v>
+                  <c:v>8.5965163402530465E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5965163402530465E-2</c:v>
+                  <c:v>2.6823613076658148E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6823613076658148E-2</c:v>
+                  <c:v>-2.6948692499384919E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.6948692499384919E-2</c:v>
+                  <c:v>-7.5969430554781781E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.5969430554781781E-2</c:v>
+                  <c:v>-0.12077220287498136</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.12077220287498136</c:v>
+                  <c:v>-0.16181944437546036</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.16181944437546036</c:v>
+                  <c:v>-0.19951318547014907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,85 +3634,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,85 +3724,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>3.4480705754683316</c:v>
+                  <c:v>4.6781339597316567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6781339597316567</c:v>
+                  <c:v>4.9664628818155609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9664628818155609</c:v>
+                  <c:v>4.7618001704853983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7618001704853983</c:v>
+                  <c:v>4.3559224878993978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3559224878993978</c:v>
+                  <c:v>3.8933933126748599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8933933126748599</c:v>
+                  <c:v>3.4389671278720133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4389671278720133</c:v>
+                  <c:v>3.018806277387851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.018806277387851</c:v>
+                  <c:v>2.6411642953288688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6411642953288688</c:v>
+                  <c:v>2.3062862082371538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3062862082371538</c:v>
+                  <c:v>2.0110865681555232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0110865681555232</c:v>
+                  <c:v>1.7513372239880596</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7513372239880596</c:v>
+                  <c:v>1.5226655517592498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5226655517592498</c:v>
+                  <c:v>1.3209829142138538</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3209829142138538</c:v>
+                  <c:v>1.1426415530314493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1426415530314493</c:v>
+                  <c:v>0.98446479442498003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98446479442498003</c:v>
+                  <c:v>0.84372129415882569</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84372129415882569</c:v>
+                  <c:v>0.71807769122610665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.71807769122610665</c:v>
+                  <c:v>0.60554603512571248</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.60554603512571248</c:v>
+                  <c:v>0.50443340047067053</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.50443340047067053</c:v>
+                  <c:v>0.41329667550268923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41329667550268923</c:v>
+                  <c:v>0.33090336429793865</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33090336429793865</c:v>
+                  <c:v>0.25619824809682967</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25619824809682967</c:v>
+                  <c:v>0.18827533579025513</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18827533579025513</c:v>
+                  <c:v>0.12635440350974747</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12635440350974747</c:v>
+                  <c:v>6.9761427947383936E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9761427947383936E-2</c:v>
+                  <c:v>1.7912280788888069E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7912280788888069E-2</c:v>
+                  <c:v>-2.9700865857023473E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,7 +3942,7 @@
         <c:axId val="1851022368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5243,16 +5243,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>587830</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>436375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>574385</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142124</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>273371</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6076,8 +6076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C37B518-5F36-49AE-BD0B-2BEF60CE804C}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6244,22 +6244,22 @@
       </c>
       <c r="G5" s="1">
         <f>(10^6/H5)^0.5</f>
-        <v>707.10678118654755</v>
+        <v>577.35026918962569</v>
       </c>
       <c r="H5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
         <f>($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H5)*(I$3-$C$8)-$C$10*$C$11*$H5)/10000</f>
-        <v>-1.1946402043194171</v>
+        <v>-6.870570910656025E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:K5" si="0">($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H5)*(J$3-$C$8)-$C$10*$C$11*$H5)/10000</f>
-        <v>-1.0178688487192091</v>
+        <v>0.8118993947839539</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.84109749311900084</v>
+        <v>1.6925044986744679</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -6277,34 +6277,34 @@
       <c r="E6" s="1"/>
       <c r="G6" s="1">
         <f t="shared" ref="G6:G32" si="1">(10^6/H6)^0.5</f>
-        <v>577.35026918962569</v>
+        <v>500</v>
       </c>
       <c r="H6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:K33" si="2">($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H6)*(I$3-$C$8)-$C$10*$C$11*$H6)/10000</f>
-        <v>-6.870570910656025E-2</v>
+        <v>2.1241088003936364</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>0.8118993947839539</v>
+        <v>4.0895762291056501</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>1.6925044986744679</v>
+        <v>6.0550436578176621</v>
       </c>
       <c r="L6" s="1">
         <f>(I7-I5)/($H7-$H5)</f>
-        <v>1.6593745023565267</v>
+        <v>2.3769114765101329</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" ref="M6:N21" si="3">(J7-J5)/($H7-$H5)</f>
-        <v>2.5537225389124298</v>
+        <v>3.5275227181208946</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>3.4480705754683316</v>
+        <v>4.6781339597316567</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -6326,34 +6326,34 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>447.21359549995793</v>
       </c>
       <c r="H7" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
         <f>($C$2*$C$4*$B$23/1000*EXP(-$C$5/$H7)*(I$3-$C$8)-$C$10*$C$11*$H7)/10000</f>
-        <v>2.1241088003936364</v>
+        <v>4.6851172439137052</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>4.0895762291056501</v>
+        <v>7.8669448310257426</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>6.0550436578176621</v>
+        <v>11.048772418137782</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L32" si="4">(I8-I6)/($H8-$H6)</f>
-        <v>2.3769114765101329</v>
+        <v>2.545103347725743</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>3.5275227181208946</v>
+        <v>3.7557831147706522</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>4.6781339597316567</v>
+        <v>4.9664628818155609</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -6375,34 +6375,34 @@
       <c r="E8" s="1"/>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>447.21359549995793</v>
+        <v>408.24829046386299</v>
       </c>
       <c r="H8" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>4.6851172439137052</v>
+        <v>7.2143154958451223</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>7.8669448310257426</v>
+        <v>11.601142458646954</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>11.048772418137782</v>
+        <v>15.987969421448783</v>
       </c>
       <c r="L8" s="1">
         <f>(I9-I7)/($H9-$H7)</f>
-        <v>2.545103347725743</v>
+        <v>2.4257167661164818</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>3.7557831147706522</v>
+        <v>3.5937584683009396</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>4.9664628818155609</v>
+        <v>4.7618001704853983</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -6415,34 +6415,34 @@
       <c r="E9" s="1"/>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>408.24829046386299</v>
+        <v>377.96447300922722</v>
       </c>
       <c r="H9" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>7.2143154958451223</v>
+        <v>9.5365507761466688</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>11.601142458646954</v>
+        <v>15.054461767627622</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>15.987969421448783</v>
+        <v>20.572372759108578</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>2.4257167661164818</v>
+        <v>2.188954784607982</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>3.5937584683009396</v>
+        <v>3.2724386362536872</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>4.7618001704853983</v>
+        <v>4.3559224878993978</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -6463,34 +6463,34 @@
       <c r="E10" s="1"/>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>377.96447300922722</v>
+        <v>353.55339059327378</v>
       </c>
       <c r="H10" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>9.5365507761466688</v>
+        <v>11.592225065061086</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>15.054461767627622</v>
+        <v>18.146019731154329</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>20.572372759108578</v>
+        <v>24.699814397247579</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>2.188954784607982</v>
+        <v>1.9191460990603346</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>3.2724386362536872</v>
+        <v>2.9062697058675973</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>4.3559224878993978</v>
+        <v>3.8933933126748599</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -6511,34 +6511,34 @@
       <c r="E11" s="1"/>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>353.55339059327378</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="H11" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="2"/>
-        <v>11.592225065061086</v>
+        <v>13.374842974267338</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>18.146019731154329</v>
+        <v>20.867001179362816</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>24.699814397247579</v>
+        <v>28.359159384458298</v>
       </c>
       <c r="L11" s="1">
         <f>(I12-I10)/($H12-$H10)</f>
-        <v>1.9191460990603346</v>
+        <v>1.6540641579253412</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>2.9062697058675973</v>
+        <v>2.5465156428986777</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>3.8933933126748599</v>
+        <v>3.4389671278720133</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -6546,34 +6546,34 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>333.33333333333331</v>
+        <v>316.22776601683796</v>
       </c>
       <c r="H12" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>13.374842974267338</v>
+        <v>14.900353380911769</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>20.867001179362816</v>
+        <v>23.239051016951684</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
-        <v>28.359159384458298</v>
+        <v>31.577748652991605</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>1.6540641579253412</v>
+        <v>1.4089703284762489</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="3"/>
-        <v>2.5465156428986777</v>
+        <v>2.2138883029320517</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>3.4389671278720133</v>
+        <v>3.018806277387851</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -6581,34 +6581,34 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>316.22776601683796</v>
+        <v>301.51134457776362</v>
       </c>
       <c r="H13" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>14.900353380911769</v>
+        <v>16.192783631219836</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>23.239051016951684</v>
+        <v>25.29477778522692</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
-        <v>31.577748652991605</v>
+        <v>34.396771939234</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>1.4089703284762489</v>
+        <v>1.1886791722751751</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>2.2138883029320517</v>
+        <v>1.9149217338020215</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>3.018806277387851</v>
+        <v>2.6411642953288688</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -6625,34 +6625,34 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>301.51134457776362</v>
+        <v>288.67513459481285</v>
       </c>
       <c r="H14" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>16.192783631219836</v>
+        <v>17.277711725462119</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>25.29477778522692</v>
+        <v>27.068894484555727</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>34.396771939234</v>
+        <v>36.860077243649343</v>
       </c>
       <c r="L14" s="1">
         <f>(I15-I13)/($H15-$H13)</f>
-        <v>1.1886791722751751</v>
+        <v>0.99333362147167215</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>1.9149217338020215</v>
+        <v>1.6498099148544121</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="3"/>
-        <v>2.6411642953288688</v>
+        <v>2.3062862082371538</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6669,34 +6669,34 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>288.67513459481285</v>
+        <v>277.35009811261455</v>
       </c>
       <c r="H15" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>17.277711725462119</v>
+        <v>18.17945087416318</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="2"/>
-        <v>27.068894484555727</v>
+        <v>28.594397614935744</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>36.860077243649343</v>
+        <v>39.009344355708308</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="4"/>
-        <v>0.99333362147167215</v>
+        <v>0.82113383142405283</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>1.6498099148544121</v>
+        <v>1.4161101997897898</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="3"/>
-        <v>2.3062862082371538</v>
+        <v>2.0110865681555232</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -6713,34 +6713,34 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>277.35009811261455</v>
+        <v>267.2612419124244</v>
       </c>
       <c r="H16" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>18.17945087416318</v>
+        <v>18.919979388310225</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="2"/>
-        <v>28.594397614935744</v>
+        <v>29.901114884135307</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>39.009344355708308</v>
+        <v>40.882250379960389</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>0.82113383142405283</v>
+        <v>0.66961338065970111</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="3"/>
-        <v>1.4161101997897898</v>
+        <v>1.2104753023238821</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="3"/>
-        <v>2.0110865681555232</v>
+        <v>1.7513372239880596</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -6757,34 +6757,34 @@
       <c r="F17" s="27"/>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>267.2612419124244</v>
+        <v>258.19888974716116</v>
       </c>
       <c r="H17" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>18.919979388310225</v>
+        <v>19.518677635482582</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>29.901114884135307</v>
+        <v>31.015348219583508</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>40.882250379960389</v>
+        <v>42.512018803684427</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="4"/>
-        <v>0.66961338065970111</v>
+        <v>0.53622157185956532</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>1.2104753023238821</v>
+        <v>1.0294435618094084</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="3"/>
-        <v>1.7513372239880596</v>
+        <v>1.5226655517592498</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -6792,34 +6792,34 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>258.19888974716116</v>
+        <v>250</v>
       </c>
       <c r="H18" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>19.518677635482582</v>
+        <v>19.992422532029355</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>31.015348219583508</v>
+        <v>31.960002007754124</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
-        <v>42.512018803684427</v>
+        <v>43.927581483478889</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="4"/>
-        <v>0.53622157185956532</v>
+        <v>0.41857336662474864</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="3"/>
-        <v>1.0294435618094084</v>
+        <v>0.86977814041929591</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="3"/>
-        <v>1.5226655517592498</v>
+        <v>1.3209829142138538</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -6836,34 +6836,34 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>242.53562503633299</v>
       </c>
       <c r="H19" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>19.992422532029355</v>
+        <v>20.35582436873208</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>31.960002007754124</v>
+        <v>32.7549045004221</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="2"/>
-        <v>43.927581483478889</v>
+        <v>45.153984632112135</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="4"/>
-        <v>0.41857336662474864</v>
+        <v>0.31454090593501327</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="3"/>
-        <v>0.86977814041929591</v>
+        <v>0.72859122948323041</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="3"/>
-        <v>1.3209829142138538</v>
+        <v>1.1426415530314493</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -6880,34 +6880,34 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>242.53562503633299</v>
+        <v>235.70226039551585</v>
       </c>
       <c r="H20" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>20.35582436873208</v>
+        <v>20.621504343899382</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>32.7549045004221</v>
+        <v>33.417184466720585</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>45.153984632112135</v>
+        <v>46.212864589541788</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="4"/>
-        <v>0.31454090593501327</v>
+        <v>0.22227113008123744</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="3"/>
-        <v>0.72859122948323041</v>
+        <v>0.60336796225310962</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="3"/>
-        <v>1.1426415530314493</v>
+        <v>0.98446479442498003</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -6924,34 +6924,34 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>235.70226039551585</v>
+        <v>229.41573387056175</v>
       </c>
       <c r="H21" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>20.621504343899382</v>
+        <v>20.800366628894555</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>33.417184466720585</v>
+        <v>33.961640424928319</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="2"/>
-        <v>46.212864589541788</v>
+        <v>47.122914220962095</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="4"/>
-        <v>0.22227113008123744</v>
+        <v>0.14017075492597897</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="3"/>
-        <v>0.60336796225310962</v>
+        <v>0.49194602454240055</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="3"/>
-        <v>0.98446479442498003</v>
+        <v>0.84372129415882569</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -6969,34 +6969,34 @@
       <c r="D22" s="31"/>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>229.41573387056175</v>
+        <v>223.60679774997897</v>
       </c>
       <c r="H22" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>20.800366628894555</v>
+        <v>20.90184585375134</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="2"/>
-        <v>33.961640424928319</v>
+        <v>34.401076515805386</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="2"/>
-        <v>47.122914220962095</v>
+        <v>47.900307177859439</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="4"/>
-        <v>0.14017075492597897</v>
+        <v>6.6878653215228567E-2</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ref="M22:M31" si="5">(J23-J21)/($H23-$H21)</f>
-        <v>0.49194602454240055</v>
+        <v>0.39247817222067027</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ref="N22:N32" si="6">(K23-K21)/($H23-$H21)</f>
-        <v>0.84372129415882569</v>
+        <v>0.71807769122610665</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -7015,34 +7015,34 @@
       <c r="F23" s="2"/>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>223.60679774997897</v>
+        <v>218.21789023599237</v>
       </c>
       <c r="H23" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>20.90184585375134</v>
+        <v>20.934123935325012</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>34.401076515805386</v>
+        <v>34.74659676936966</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
-        <v>47.900307177859439</v>
+        <v>48.559069603414308</v>
       </c>
       <c r="L23" s="1">
         <f>(I24-I22)/($H24-$H22)</f>
-        <v>6.6878653215228567E-2</v>
+        <v>1.235187156666484E-3</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="5"/>
-        <v>0.39247817222067027</v>
+        <v>0.30339061114119303</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="6"/>
-        <v>0.71807769122610665</v>
+        <v>0.60554603512571248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -7050,319 +7050,319 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>218.21789023599237</v>
+        <v>213.20071635561044</v>
       </c>
       <c r="H24" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>20.934123935325012</v>
+        <v>20.904316228064673</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>34.74659676936966</v>
+        <v>35.007857738087772</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="2"/>
-        <v>48.559069603414308</v>
+        <v>49.111399248110864</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="4"/>
-        <v>1.235187156666484E-3</v>
+        <v>-5.7747183058774354E-2</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="5"/>
-        <v>0.30339061114119303</v>
+        <v>0.22334310870595075</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="6"/>
-        <v>0.60554603512571248</v>
+        <v>0.50443340047067053</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>213.20071635561044</v>
+        <v>208.51441405707476</v>
       </c>
       <c r="H25" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="2"/>
-        <v>20.904316228064673</v>
+        <v>20.818629569207463</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
-        <v>35.007857738087772</v>
+        <v>35.193282986781561</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="2"/>
-        <v>49.111399248110864</v>
+        <v>49.567936404355649</v>
       </c>
       <c r="L25" s="1">
         <f>(I26-I24)/($H26-$H24)</f>
-        <v>-5.7747183058774354E-2</v>
+        <v>-0.11091027262343545</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="5"/>
-        <v>0.22334310870595075</v>
+        <v>0.15119320143962156</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="6"/>
-        <v>0.50443340047067053</v>
+        <v>0.41329667550268923</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>208.51441405707476</v>
+        <v>204.12414523193149</v>
       </c>
       <c r="H26" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="2"/>
-        <v>20.818629569207463</v>
+        <v>20.682495682817802</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>35.193282986781561</v>
+        <v>35.310244140967015</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v>49.567936404355649</v>
+        <v>49.937992599116242</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="4"/>
-        <v>-0.11091027262343545</v>
+        <v>-0.15897303749287062</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="5"/>
-        <v>0.15119320143962156</v>
+        <v>8.5965163402530465E-2</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="6"/>
-        <v>0.41329667550268923</v>
+        <v>0.33090336429793865</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>204.12414523193149</v>
+        <v>200</v>
       </c>
       <c r="H27" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="2"/>
-        <v>20.682495682817802</v>
+        <v>20.500683494221722</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>35.310244140967015</v>
+        <v>35.365213313586622</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v>49.937992599116242</v>
+        <v>50.229743132951526</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="4"/>
-        <v>-0.15897303749287062</v>
+        <v>-0.20255102194351515</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="5"/>
-        <v>8.5965163402530465E-2</v>
+        <v>2.6823613076658148E-2</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="6"/>
-        <v>0.33090336429793865</v>
+        <v>0.25619824809682967</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>196.11613513818403</v>
       </c>
       <c r="H28" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="2"/>
-        <v>20.500683494221722</v>
+        <v>20.277393638930771</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="2"/>
-        <v>35.365213313586622</v>
+        <v>35.363891367120331</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>50.229743132951526</v>
+        <v>50.450389095309902</v>
       </c>
       <c r="L28" s="1">
         <f>(I29-I27)/($H29-$H27)</f>
-        <v>-0.20255102194351515</v>
+        <v>-0.24217272078901964</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="5"/>
-        <v>2.6823613076658148E-2</v>
+        <v>-2.6948692499384919E-2</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="6"/>
-        <v>0.25619824809682967</v>
+        <v>0.18827533579025513</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>196.11613513818403</v>
+        <v>192.45008972987526</v>
       </c>
       <c r="H29" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="2"/>
-        <v>20.277393638930771</v>
+        <v>20.016338052643682</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="2"/>
-        <v>35.363891367120331</v>
+        <v>35.311315928587852</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="2"/>
-        <v>50.450389095309902</v>
+        <v>50.606293804532037</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="4"/>
-        <v>-0.24217272078901964</v>
+        <v>-0.27829326461931281</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="5"/>
-        <v>-2.6948692499384919E-2</v>
+        <v>-7.5969430554781781E-2</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="6"/>
-        <v>0.18827533579025513</v>
+        <v>0.12635440350974747</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>192.45008972987526</v>
+        <v>188.98223650461361</v>
       </c>
       <c r="H30" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="2"/>
-        <v>20.016338052643682</v>
+        <v>19.720807109692146</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>35.311315928587852</v>
+        <v>35.211952506010768</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="2"/>
-        <v>50.606293804532037</v>
+        <v>50.703097902329397</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="4"/>
-        <v>-0.27829326461931281</v>
+        <v>-0.31130583369735554</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="5"/>
-        <v>-7.5969430554781781E-2</v>
+        <v>-0.12077220287498136</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="6"/>
-        <v>0.12635440350974747</v>
+        <v>6.9761427947383936E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>188.98223650461361</v>
+        <v>185.69533817705187</v>
       </c>
       <c r="H31" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>19.720807109692146</v>
+        <v>19.393726385248971</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>35.211952506010768</v>
+        <v>35.06977152283789</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>50.703097902329397</v>
+        <v>50.745816660426804</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="4"/>
-        <v>-0.31130583369735554</v>
+        <v>-0.34155116953981413</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="5"/>
-        <v>-0.12077220287498136</v>
+        <v>-0.16181944437546036</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="6"/>
-        <v>6.9761427947383936E-2</v>
+        <v>1.7912280788888069E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>185.69533817705187</v>
+        <v>182.57418583505537</v>
       </c>
       <c r="H32" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="2"/>
-        <v>19.393726385248971</v>
+        <v>19.037704770612518</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>35.06977152283789</v>
+        <v>34.888313617259847</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="2"/>
-        <v>50.745816660426804</v>
+        <v>50.738922463907173</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="4"/>
-        <v>-0.34155116953981413</v>
+        <v>-0.36932550508326756</v>
       </c>
       <c r="M32" s="1">
         <f>(J33-J31)/($H33-$H31)</f>
-        <v>-0.16181944437546036</v>
+        <v>-0.19951318547014907</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="6"/>
-        <v>1.7912280788888069E-2</v>
+        <v>-2.9700865857023473E-2</v>
       </c>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G33" s="1">
         <f t="shared" ref="G33" si="7">(10^6/H33)^0.5</f>
-        <v>182.57418583505537</v>
+        <v>179.60530202677489</v>
       </c>
       <c r="H33" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="2"/>
-        <v>19.037704770612518</v>
+        <v>18.655075375082436</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>34.888313617259847</v>
+        <v>34.670745151897592</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="2"/>
-        <v>50.738922463907173</v>
+        <v>50.686414928712757</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>

--- a/Excel/02井网密度.xlsx
+++ b/Excel/02井网密度.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE12A816-4211-467D-8D43-EC5CFB107DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DB627-4036-41D5-AC16-127B27F3704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01技术上" sheetId="1" r:id="rId1"/>
     <sheet name="02经济上" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="test" sheetId="3" r:id="rId4"/>
+    <sheet name="test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单井产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,24 +263,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>油的密度，kg/m</t>
     </r>
     <r>
       <rPr>
@@ -674,12 +651,58 @@
   <si>
     <t>【表4】</t>
   </si>
+  <si>
+    <r>
+      <t>单井产量，m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>脱气油的密度，kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4002,16 +4025,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12455309148014121"/>
-          <c:y val="0.12170128539659536"/>
-          <c:w val="0.78455555555555556"/>
+          <c:x val="0.135831997721714"/>
+          <c:y val="0.11141195736949107"/>
+          <c:w val="0.51574092548856154"/>
           <c:h val="0.11474555263925344"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFF99"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -5545,14 +5568,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" customWidth="1"/>
@@ -5562,14 +5587,14 @@
     <col min="12" max="12" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="E1" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -5578,9 +5603,9 @@
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
     </row>
-    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.2">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -5590,17 +5615,17 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -5630,7 +5655,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.2">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -5641,28 +5666,28 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -5700,9 +5725,9 @@
         <v>308.50080986783911</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.2">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>5</v>
@@ -5738,16 +5763,16 @@
         <v>377.83478470578768</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.2">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="20">
-        <f>B11*B12*B13/B14*1000</f>
-        <v>17.33451294117647</v>
+        <f>B11*B13*1000/B14*B12</f>
+        <v>299.85189313653137</v>
       </c>
       <c r="E7" s="8">
         <v>20</v>
@@ -5777,7 +5802,7 @@
         <v>436.28602931818159</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="E8" s="8">
         <v>25</v>
       </c>
@@ -5806,7 +5831,7 @@
         <v>487.78260959446015</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="E9" s="8">
         <v>30</v>
       </c>
@@ -5835,15 +5860,15 @@
         <v>534.33907686724342</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8">
         <v>35</v>
@@ -5873,15 +5898,15 @@
         <v>577.15216703387171</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="16">
         <v>1.024</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8">
         <v>40</v>
@@ -5911,15 +5936,15 @@
         <v>617.00161973567822</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="16">
         <v>14.388999999999999</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8">
         <v>45</v>
@@ -5949,15 +5974,15 @@
         <v>654.42904397727239</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="21">
+        <v>16.545000000000002</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="8">
         <v>50</v>
@@ -5987,15 +6012,15 @@
         <v>689.82878197822606</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.2">
       <c r="A14" s="23" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10">
-        <v>850</v>
+        <v>813</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8">
         <v>55</v>
@@ -6025,7 +6050,7 @@
         <v>723.49853026120195</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="E15" s="8">
         <v>60</v>
       </c>
@@ -6054,7 +6079,7 @@
         <v>755.66956941157537</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:9">
       <c r="F17" s="22"/>
       <c r="I17" s="22"/>
     </row>
@@ -6076,11 +6101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C37B518-5F36-49AE-BD0B-2BEF60CE804C}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="42.109375" customWidth="1"/>
@@ -6097,21 +6122,21 @@
     <col min="15" max="15" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
@@ -6123,9 +6148,9 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -6134,26 +6159,26 @@
         <v>800</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="28"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4"/>
       <c r="I2" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6162,7 +6187,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I3" s="34">
         <v>3000</v>
@@ -6185,62 +6210,62 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="16">
         <v>0.67200000000000004</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.2">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16">
         <f>0.1814/(B17^0.4218)*100</f>
         <v>9.6345130079222532</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1">
         <f>(10^6/H5)^0.5</f>
@@ -6267,9 +6292,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6309,16 +6334,16 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="16">
         <f>B20*B21/B22/B23*1000</f>
@@ -6358,19 +6383,19 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="16">
         <f>1600</f>
         <v>1600</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" s="1">
@@ -6407,7 +6432,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="18"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6447,9 +6472,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.2">
       <c r="A10" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -6458,7 +6483,7 @@
         <v>5.28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1"/>
       <c r="G10" s="1">
@@ -6495,18 +6520,18 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10">
         <v>1600</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1"/>
       <c r="G11" s="1">
@@ -6543,7 +6568,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>316.22776601683796</v>
@@ -6578,7 +6603,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>301.51134457776362</v>
@@ -6613,15 +6638,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -6657,15 +6682,15 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="16">
         <v>45.227499999999999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
@@ -6701,15 +6726,15 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.2">
       <c r="A16" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="10">
         <v>10.09</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
@@ -6745,9 +6770,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="16">
         <f>B15/B16</f>
@@ -6789,7 +6814,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -6824,15 +6849,15 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
@@ -6868,15 +6893,15 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="32">
         <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -6912,15 +6937,15 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="10">
         <v>7.2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -6956,15 +6981,15 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.2">
       <c r="A22" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="32">
         <v>0.15897500000000001</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="31"/>
       <c r="G22" s="1">
@@ -7001,15 +7026,15 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.2">
       <c r="A23" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="32">
         <v>813</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -7047,7 +7072,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>213.20071635561044</v>
@@ -7080,7 +7105,7 @@
         <v>0.50443340047067053</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>208.51441405707476</v>
@@ -7113,7 +7138,7 @@
         <v>0.41329667550268923</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>204.12414523193149</v>
@@ -7146,7 +7171,7 @@
         <v>0.33090336429793865</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>200</v>
@@ -7179,7 +7204,7 @@
         <v>0.25619824809682967</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>196.11613513818403</v>
@@ -7212,7 +7237,7 @@
         <v>0.18827533579025513</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>192.45008972987526</v>
@@ -7245,7 +7270,7 @@
         <v>0.12635440350974747</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>188.98223650461361</v>
@@ -7278,7 +7303,7 @@
         <v>6.9761427947383936E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="G31" s="1">
         <f t="shared" si="1"/>
         <v>185.69533817705187</v>
@@ -7311,7 +7336,7 @@
         <v>1.7912280788888069E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>182.57418583505537</v>
@@ -7344,7 +7369,7 @@
         <v>-2.9700865857023473E-2</v>
       </c>
     </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:14">
       <c r="G33" s="1">
         <f t="shared" ref="G33" si="7">(10^6/H33)^0.5</f>
         <v>179.60530202677489</v>
@@ -7382,27 +7407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AADF05-BE47-4468-B57C-FB7E9798BF08}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CF8B23-2582-4767-B5BF-CD1F67977295}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
@@ -7414,21 +7426,21 @@
     <col min="15" max="15" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="37"/>
       <c r="I1" s="37"/>
@@ -7440,9 +7452,9 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.2">
       <c r="A2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -7451,26 +7463,26 @@
         <v>1079.973</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="28"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4"/>
       <c r="I2" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
       <c r="L2" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.2">
       <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7479,7 +7491,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="5">
         <v>3000</v>
@@ -7496,25 +7508,25 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="16">
         <v>0.67200000000000004</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4" s="5">
         <v>3000</v>
@@ -7535,26 +7547,26 @@
         <v>4000</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.2">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16">
         <f>0.1814/(B17^0.4218)*100</f>
         <v>9.6345130079222532</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1">
         <f>(10^6/H5)^0.5</f>
@@ -7581,9 +7593,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.2">
       <c r="A6" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -7597,11 +7609,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:K32" si="2">($C$2*$C$4*EXP(-$C$5/$H6)*(I$3-$C$8)-$C$10*$C$11*$H6)/10000</f>
+        <f>($C$2*$C$4*EXP(-$C$5/$H6)*(I$3-$C$8)-$C$10*$C$11*$H6)/10000</f>
         <v>19.685882732491283</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I6:K32" si="2">($C$2*$C$4*EXP(-$C$5/$H6)*(J$3-$C$8)-$C$10*$C$11*$H6)/10000</f>
         <v>26.970099638238484</v>
       </c>
       <c r="K6" s="1">
@@ -7617,16 +7629,16 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="16">
         <f>B20*B21/B22</f>
@@ -7657,19 +7669,19 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.2">
       <c r="A8" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="16">
         <f>B25/1000*B26</f>
         <v>1300.8000000000002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
@@ -7696,7 +7708,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="18"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -7727,9 +7739,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.2">
       <c r="A10" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -7738,7 +7750,7 @@
         <v>5.28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1"/>
       <c r="G10" s="1">
@@ -7766,18 +7778,18 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10">
         <v>1600</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1"/>
       <c r="G11" s="1">
@@ -7805,7 +7817,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>288.67513459481285</v>
@@ -7831,7 +7843,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>277.35009811261455</v>
@@ -7857,15 +7869,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -7892,15 +7904,15 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="16">
         <v>45.227499999999999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
@@ -7927,15 +7939,15 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.2">
       <c r="A16" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="10">
         <v>10.09</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
@@ -7962,9 +7974,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="16">
         <f>B15/B16</f>
@@ -7997,7 +8009,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>235.70226039551585</v>
@@ -8023,15 +8035,15 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
@@ -8058,15 +8070,15 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="32">
         <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="1"/>
@@ -8093,15 +8105,15 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="10">
         <v>7.2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="1"/>
@@ -8128,15 +8140,15 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.2">
       <c r="A22" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="32">
         <v>0.15897500000000001</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="31"/>
       <c r="G22" s="1">
@@ -8164,7 +8176,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -8192,15 +8204,15 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
@@ -8222,15 +8234,15 @@
         <v>110.84660222137774</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="32">
         <v>1600</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
@@ -8252,15 +8264,15 @@
         <v>112.12428873417626</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="16.2">
       <c r="A26" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="32">
         <v>813</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
@@ -8282,7 +8294,7 @@
         <v>113.26918881164687</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>192.45008972987526</v>
@@ -8303,7 +8315,7 @@
         <v>114.29318582980549</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>188.98223650461361</v>
@@ -8324,7 +8336,7 @@
         <v>115.20681357980327</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>185.69533817705187</v>
@@ -8345,7 +8357,7 @@
         <v>116.01943798623134</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>182.57418583505537</v>
@@ -8366,7 +8378,7 @@
         <v>116.73941114319904</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="G31" s="1">
         <f t="shared" si="1"/>
         <v>179.60530202677489</v>
@@ -8387,7 +8399,7 @@
         <v>117.37420225743405</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>176.77669529663689</v>
